--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\workspace\Online Employee DB\test plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Class Tested</t>
   </si>
@@ -39,15 +39,110 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>StubEmployeeRepositoryImpl.Java</t>
+  </si>
+  <si>
+    <t>findEmployeesByName(String firstName, String lastName)</t>
+  </si>
+  <si>
+    <t>firstName="" lastName=""</t>
+  </si>
+  <si>
+    <t>All employees</t>
+  </si>
+  <si>
+    <t>firstName="" lastName="-1"</t>
+  </si>
+  <si>
+    <t>Empty list</t>
+  </si>
+  <si>
+    <t>public Employee findEmployeeByID(long employeeID)</t>
+  </si>
+  <si>
+    <t>Empty employee</t>
+  </si>
+  <si>
+    <t>employeeID="a"</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>public List&lt;Employee&gt; findEmployeesByProject(long projectID)</t>
+  </si>
+  <si>
+    <t>projectID=-1</t>
+  </si>
+  <si>
+    <t>employeeID=1</t>
+  </si>
+  <si>
+    <t>employeeID=-1</t>
+  </si>
+  <si>
+    <t>projectID="a"</t>
+  </si>
+  <si>
+    <t>StubProjectRepositoryImpl.Java</t>
+  </si>
+  <si>
+    <t>public List&lt;Project&gt; listAllProjects()</t>
+  </si>
+  <si>
+    <t>List of all projects</t>
+  </si>
+  <si>
+    <t>public List&lt;Project&gt; getEmployeeProjects(long employeeID)</t>
+  </si>
+  <si>
+    <t>Public List&lt;ProjectRole&gt; getEmployeeProjectRoles(long employeeID,  long projectID)</t>
+  </si>
+  <si>
+    <t>List with size 10</t>
+  </si>
+  <si>
+    <t>firstName="an" lastName=""</t>
+  </si>
+  <si>
+    <t>List with size 3</t>
+  </si>
+  <si>
+    <t>firstName="" lastName="Darabi"</t>
+  </si>
+  <si>
+    <t>List with size 1</t>
+  </si>
+  <si>
+    <t>Ruzwana A. Bashir</t>
+  </si>
+  <si>
+    <t>projectID=2</t>
+  </si>
+  <si>
+    <t>List with size 2</t>
+  </si>
+  <si>
+    <t>employeeID=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -70,14 +165,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,48 +496,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
     <col min="7" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>Class Tested</t>
   </si>
@@ -126,6 +126,39 @@
   </si>
   <si>
     <t>employeeID=2</t>
+  </si>
+  <si>
+    <t>employeeID=-1 projectID=1</t>
+  </si>
+  <si>
+    <t>Empty List</t>
+  </si>
+  <si>
+    <t>employeeID=7 projectID=2</t>
+  </si>
+  <si>
+    <t>List with size 7</t>
+  </si>
+  <si>
+    <t>employeeID=-1 projectID="a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public List&lt;EmployeeProjectDetail&gt; getEmployeeProjectHistory(long employeeID) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">employeeID=7 </t>
+  </si>
+  <si>
+    <t>StubSkillRepositoryImpl.Java</t>
+  </si>
+  <si>
+    <t>public List&lt;EmployeeSkill&gt; findEmployeeSkills(long employeeID)</t>
+  </si>
+  <si>
+    <t>employeeID=10</t>
+  </si>
+  <si>
+    <t>employeeID=9</t>
   </si>
 </sst>
 </file>
@@ -193,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,17 +532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -552,7 +588,7 @@
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -566,7 +602,7 @@
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
@@ -578,7 +614,7 @@
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
@@ -665,7 +701,7 @@
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -681,7 +717,7 @@
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
@@ -694,6 +730,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>33</v>
@@ -703,6 +740,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -711,14 +749,133 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Class Tested</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Empty employee</t>
   </si>
   <si>
-    <t>employeeID="a"</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
     <t>public List&lt;Employee&gt; findEmployeesByProject(long projectID)</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>employeeID=-1</t>
   </si>
   <si>
-    <t>projectID="a"</t>
-  </si>
-  <si>
     <t>StubProjectRepositoryImpl.Java</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>public List&lt;Project&gt; getEmployeeProjects(long employeeID)</t>
   </si>
   <si>
-    <t>Public List&lt;ProjectRole&gt; getEmployeeProjectRoles(long employeeID,  long projectID)</t>
-  </si>
-  <si>
     <t>List with size 10</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>List with size 1</t>
   </si>
   <si>
-    <t>Ruzwana A. Bashir</t>
-  </si>
-  <si>
     <t>projectID=2</t>
   </si>
   <si>
@@ -128,21 +113,9 @@
     <t>employeeID=2</t>
   </si>
   <si>
-    <t>employeeID=-1 projectID=1</t>
-  </si>
-  <si>
     <t>Empty List</t>
   </si>
   <si>
-    <t>employeeID=7 projectID=2</t>
-  </si>
-  <si>
-    <t>List with size 7</t>
-  </si>
-  <si>
-    <t>employeeID=-1 projectID="a"</t>
-  </si>
-  <si>
     <t xml:space="preserve">public List&lt;EmployeeProjectDetail&gt; getEmployeeProjectHistory(long employeeID) </t>
   </si>
   <si>
@@ -155,10 +128,10 @@
     <t>public List&lt;EmployeeSkill&gt; findEmployeeSkills(long employeeID)</t>
   </si>
   <si>
-    <t>employeeID=10</t>
-  </si>
-  <si>
-    <t>employeeID=9</t>
+    <t>List of all projects with size 8</t>
+  </si>
+  <si>
+    <t>emploeyee Ruzwana A. Bashir</t>
   </si>
 </sst>
 </file>
@@ -534,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
@@ -579,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -595,19 +568,17 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -616,10 +587,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -630,45 +601,41 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -679,199 +646,203 @@
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
+  <mergeCells count="26">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="C22:C24"/>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Class Tested</t>
   </si>
@@ -50,9 +50,6 @@
     <t>firstName="" lastName=""</t>
   </si>
   <si>
-    <t>All employees</t>
-  </si>
-  <si>
     <t>firstName="" lastName="-1"</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>emploeyee Ruzwana A. Bashir</t>
+  </si>
+  <si>
+    <t>All employees(size 10)</t>
+  </si>
+  <si>
+    <t>emploeyee Ruzwana A.  Bashir</t>
   </si>
 </sst>
 </file>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,9 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -221,6 +221,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,18 +513,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18" style="2" customWidth="1"/>
     <col min="7" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,291 +546,321 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="C13:C18"/>
     <mergeCell ref="D16:D18"/>
@@ -833,24 +869,6 @@
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="s">
@@ -606,19 +606,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -626,211 +626,229 @@
       <c r="A7" s="2"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -841,34 +859,44 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B22:B24"/>
+  <mergeCells count="30">
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Class Tested</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>emploeyee Ruzwana A.  Bashir</t>
+  </si>
+  <si>
+    <t>employeeID=9</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +827,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>24</v>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Class Tested</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>emploeyee Ruzwana A.  Bashir</t>
-  </si>
-  <si>
-    <t>employeeID=9</t>
   </si>
 </sst>
 </file>
@@ -517,7 +514,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +824,7 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>24</v>

--- a/test plan/Repositories - Test Scenarios and Conditions.xlsx
+++ b/test plan/Repositories - Test Scenarios and Conditions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Class Tested</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>emploeyee Ruzwana A.  Bashir</t>
+  </si>
+  <si>
+    <t>employeeID=9</t>
+  </si>
+  <si>
+    <t>List with size 1 and first skill's name "Java development"</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -221,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
@@ -523,8 +532,8 @@
     <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="2" customWidth="1"/>
     <col min="7" max="16" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,10 +557,10 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -566,8 +575,8 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -580,8 +589,8 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -594,8 +603,8 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
@@ -608,54 +617,54 @@
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -670,37 +679,37 @@
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -716,64 +725,64 @@
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -787,30 +796,30 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -819,24 +828,29 @@
       <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -867,25 +881,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
@@ -897,6 +892,25 @@
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
